--- a/stock_predictor_ai/data/company_sentiment_ready/NXPI_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/NXPI_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3747"/>
+  <dimension ref="A1:B3801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30417,6 +30417,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3748">
+      <c r="A3748" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B3748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3749">
+      <c r="A3749" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B3749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3750">
+      <c r="A3750" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B3750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3751">
+      <c r="A3751" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B3751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3752">
+      <c r="A3752" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B3752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3753">
+      <c r="A3753" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B3753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3754">
+      <c r="A3754" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3755">
+      <c r="A3755" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B3755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3756">
+      <c r="A3756" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B3756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3757">
+      <c r="A3757" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B3757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3758">
+      <c r="A3758" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3759">
+      <c r="A3759" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B3759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3760">
+      <c r="A3760" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B3760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3761">
+      <c r="A3761" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B3761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3762">
+      <c r="A3762" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3763">
+      <c r="A3763" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B3763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3764">
+      <c r="A3764" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B3764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3765">
+      <c r="A3765" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B3765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3766">
+      <c r="A3766" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B3766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3767">
+      <c r="A3767" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B3767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3768">
+      <c r="A3768" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B3768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3769">
+      <c r="A3769" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B3769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3770">
+      <c r="A3770" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B3770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3771">
+      <c r="A3771" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B3771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3772">
+      <c r="A3772" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B3772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3773">
+      <c r="A3773" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B3773" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3774">
+      <c r="A3774" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B3774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3775">
+      <c r="A3775" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B3775" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3776">
+      <c r="A3776" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B3776" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3777">
+      <c r="A3777" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B3777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3778">
+      <c r="A3778" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B3778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3779">
+      <c r="A3779" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B3779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3780">
+      <c r="A3780" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B3780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3781">
+      <c r="A3781" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B3781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3782">
+      <c r="A3782" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B3782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3783">
+      <c r="A3783" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B3783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3784">
+      <c r="A3784" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B3784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3785">
+      <c r="A3785" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B3785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3786">
+      <c r="A3786" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B3786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3787">
+      <c r="A3787" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B3787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3788">
+      <c r="A3788" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B3788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3789">
+      <c r="A3789" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B3789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3790">
+      <c r="A3790" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B3790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3791">
+      <c r="A3791" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B3791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3792">
+      <c r="A3792" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3793">
+      <c r="A3793" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B3793" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3794">
+      <c r="A3794" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B3794" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3795">
+      <c r="A3795" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B3795" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3796">
+      <c r="A3796" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B3796" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3797">
+      <c r="A3797" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B3797" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3798">
+      <c r="A3798" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B3798" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3799">
+      <c r="A3799" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B3799" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3800">
+      <c r="A3800" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B3800" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3801">
+      <c r="A3801" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B3801" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
